--- a/medicine/Pharmacie/Jean-Jacques_Bertrand_(rugby_à_XV)/Jean-Jacques_Bertrand_(rugby_à_XV).xlsx
+++ b/medicine/Pharmacie/Jean-Jacques_Bertrand_(rugby_à_XV)/Jean-Jacques_Bertrand_(rugby_à_XV).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Jacques_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Jean-Jacques_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Bertrand, né le 20 mai 1939 à Brive la Gaillarde, est un homme d’affaires français. Il a dirigé plusieurs groupes pharmaceutiques.
 Il est le président du CA Brive Corrèze Limousin de 2009 à 2016 en succédant à Patrick Sébastien.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Jacques_Bertrand_(rugby_%C3%A0_XV)</t>
+          <t>Jean-Jacques_Bertrand_(rugby_à_XV)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé HEC, Jean-Jacques Bertrand est entré dans le groupe Rhône-Poulenc en 1965. Directeur marketing de Théraplix puis de Rhône-Poulenc Santé International, il devint président des Laboratoires Théraplix en 1981 puis président des Laboratoires Specia en 1984. Il prend la direction générale des opérations pharmaceutiques de Rhône-Poulenc pour la France, puis à partir de 1987 pour le monde. En 1990, il est nommé directeur général de Rhône-Poulenc Rorer avant de devenir PDG d'Aventis Pasteur de 1994 à 2003. Il est également président désigné du Syndicat national de l'industrie pharmaceutique du 1er janvier 2000 au 31 décembre 2001.
-Il devient président du conseil de surveillance des laboratoires Guerbet de mai 2006 à mai 2010 et président du conseil d'administration de mai 2010 à septembre 2013[1]. Il est parallèlement à ses fonctions président d'honneur du LEEM, Les Entreprises du médicament.
-Il s'implique au fil du temps dans le monde du rugby, au point de devenir en 2009 président du CA Brive, le club de rugby à XV de sa ville natale[2].
-Jean-Jacques Bertrand devient en 2010 administrateur de Pierre Fabre SA, puis président du conseil d'administration du groupe de 2013 à 2017, à la suite du décès de Pierre Fabre, avec qui il entretenait des liens amicaux[3].
-En novembre 2016, Jean-Jacques Bertrand laisse la présidence du CA Brive à son vice-président Simon Gillham. Il reste cependant vice-président et le représentant du CAB auprès des instances de la Ligue[4].
+Il devient président du conseil de surveillance des laboratoires Guerbet de mai 2006 à mai 2010 et président du conseil d'administration de mai 2010 à septembre 2013. Il est parallèlement à ses fonctions président d'honneur du LEEM, Les Entreprises du médicament.
+Il s'implique au fil du temps dans le monde du rugby, au point de devenir en 2009 président du CA Brive, le club de rugby à XV de sa ville natale.
+Jean-Jacques Bertrand devient en 2010 administrateur de Pierre Fabre SA, puis président du conseil d'administration du groupe de 2013 à 2017, à la suite du décès de Pierre Fabre, avec qui il entretenait des liens amicaux.
+En novembre 2016, Jean-Jacques Bertrand laisse la présidence du CA Brive à son vice-président Simon Gillham. Il reste cependant vice-président et le représentant du CAB auprès des instances de la Ligue.
 </t>
         </is>
       </c>
